--- a/medicine/Psychotrope/Marc_d'Alsace/Marc_d'Alsace.xlsx
+++ b/medicine/Psychotrope/Marc_d'Alsace/Marc_d'Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marc_d%27Alsace</t>
+          <t>Marc_d'Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marc d'Alsace, marc de gewurztraminer, marc de gewurz ou marc d'Alsace gewurztraminer de par sa dénomination légale est une eau-de-vie fabriquée à partir du marc de gewurztraminer ayant servi au préalable à l'élaboration d'un vin d'Alsace.
-Déjà connu au XVIIe siècle, le marc d'Alsace gewurztraminer bénéficiait depuis 1966 d'une appellation réglementée[1]. L'attribution en 2009 d'une appellation d'origine contrôlée (AOC) a abrogé cette appellation réglementée[2].
+Déjà connu au XVIIe siècle, le marc d'Alsace gewurztraminer bénéficiait depuis 1966 d'une appellation réglementée. L'attribution en 2009 d'une appellation d'origine contrôlée (AOC) a abrogé cette appellation réglementée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marc_d%27Alsace</t>
+          <t>Marc_d'Alsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1894, le pasteur Kieffer mentionna dans son livre Geschichte der Gemeinde Balbronn (« Histoire de la commune de Balbronn ») une distillation en date de 1606. Il y dénombra 62 propriétaires distillateurs qui distillaient surtout des marcs. 
-En 1713, soit à la fin du règne de Louis XIV, un édit royal « défend la fabrication et le transport de toutes sortes d'eaux-de-vie autres que celles du vin »[3]. Parmi les matières premières interdites se trouvait le marc de raisin. Cet édit fut abrogé cinq ans plus tard sous la Régence, à la suite de la résistance des Alsaciens[2].
+En 1713, soit à la fin du règne de Louis XIV, un édit royal « défend la fabrication et le transport de toutes sortes d'eaux-de-vie autres que celles du vin ». Parmi les matières premières interdites se trouvait le marc de raisin. Cet édit fut abrogé cinq ans plus tard sous la Régence, à la suite de la résistance des Alsaciens.
 Puis vinrent les décrets de 1966 (appellation réglementée) et 2009 (attribution d'une AOC).
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marc_d%27Alsace</t>
+          <t>Marc_d'Alsace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,18 +559,124 @@
           <t>Principales prescriptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ces prescriptions sont exprimées dans le décret de 2009[2].
-Description
-eau-de-vie incolore, non vieillie sous bois ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces prescriptions sont exprimées dans le décret de 2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marc_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales prescriptions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>eau-de-vie incolore, non vieillie sous bois ;
 teneur en substances volatiles autres que l'éthanol et le méthanol supérieure ou égale à 3,00 grammes par litre d'alcool pur ;
-titre alcoométrique volumique à la commercialisation supérieur ou égal à 45 % vol.
-Origine
-Les marcs proviennent de raisin récolté et vinifié sur les parcelles approuvées par l'INAO des communes correspondant à l'appellation d'origine contrôlée vin d'Alsace, soit 55 communes du Haut-Rhin et 64 communes du Bas-Rhin ; à aucun moment les marcs ne doivent sortir des limites des départements cités. 
-Méthode d'obtention
-Seul le cépage gewurztraminer Rs[4] est autorisé ;
-il doit être utilisé dans l'élaboration d'un vin répondant aux conditions des AOC alsace ou alsace grand cru[5] ;
+titre alcoométrique volumique à la commercialisation supérieur ou égal à 45 % vol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marc_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales prescriptions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les marcs proviennent de raisin récolté et vinifié sur les parcelles approuvées par l'INAO des communes correspondant à l'appellation d'origine contrôlée vin d'Alsace, soit 55 communes du Haut-Rhin et 64 communes du Bas-Rhin ; à aucun moment les marcs ne doivent sortir des limites des départements cités. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_d'Alsace</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_d%27Alsace</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales prescriptions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Méthode d'obtention</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Seul le cépage gewurztraminer Rs est autorisé ;
+il doit être utilisé dans l'élaboration d'un vin répondant aux conditions des AOC alsace ou alsace grand cru ;
 la durée de sa manutention est limitée :
 en cas de vendange manuelle, la durée de chargement sur le pressoir (avant pressurage) est limitée au plus à deux heures ;
 en cas de vendanges mécaniques, la durée entre le début de la récolte et le début du pressurage est limitée au plus à cinq heures ;
